--- a/Commands.xlsx
+++ b/Commands.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="65">
   <si>
     <t>Command</t>
   </si>
@@ -140,9 +140,6 @@
     <t>RD &lt;= RD-RS</t>
   </si>
   <si>
-    <t>RD &lt;= RD&gt;&gt;1</t>
-  </si>
-  <si>
     <t>RD &lt;= RD*RS</t>
   </si>
   <si>
@@ -213,6 +210,15 @@
   </si>
   <si>
     <t>Compare Rd Input</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>RD &lt;= RD&gt;&gt;?</t>
+  </si>
+  <si>
+    <t>CPI</t>
   </si>
 </sst>
 </file>
@@ -241,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,8 +272,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -556,19 +568,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -663,9 +662,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -676,9 +672,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -714,6 +707,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1032,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,23 +1099,23 @@
         <v>0</v>
       </c>
       <c r="F3" s="12"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="46">
+      <c r="G3" s="35"/>
+      <c r="H3" s="44">
         <f>C3*POWER(10,4)+D3*POWER(10,3)+E3*POWER(10,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="47" t="str">
+      <c r="I3" s="45" t="str">
         <f>BIN2HEX(H3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="41" t="s">
-        <v>56</v>
+      <c r="J3" s="39" t="s">
+        <v>55</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>32</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1134,21 +1133,21 @@
         <v>14</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="48">
+      <c r="G4" s="36"/>
+      <c r="H4" s="46">
         <f t="shared" ref="H4:H34" si="0">C4*POWER(10,4)+D4*POWER(10,3)+E4*POWER(10,0)</f>
         <v>1</v>
       </c>
-      <c r="I4" s="49" t="str">
+      <c r="I4" s="47" t="str">
         <f t="shared" ref="I4:I34" si="1">BIN2HEX(H4)</f>
         <v>1</v>
       </c>
-      <c r="J4" s="42"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="5" t="s">
         <v>33</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1166,21 +1165,21 @@
         <v>15</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="48">
+      <c r="G5" s="36"/>
+      <c r="H5" s="46">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I5" s="49" t="str">
+      <c r="I5" s="47" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J5" s="42"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="5" t="s">
         <v>34</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1198,21 +1197,21 @@
         <v>16</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="48">
+      <c r="G6" s="36"/>
+      <c r="H6" s="46">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I6" s="49" t="str">
+      <c r="I6" s="47" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J6" s="42"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1230,21 +1229,21 @@
         <v>100</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="48">
+      <c r="G7" s="36"/>
+      <c r="H7" s="46">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I7" s="49" t="str">
+      <c r="I7" s="47" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1262,21 +1261,21 @@
         <v>101</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="48">
+      <c r="G8" s="36"/>
+      <c r="H8" s="46">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="I8" s="49" t="str">
+      <c r="I8" s="47" t="str">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J8" s="42"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1294,21 +1293,23 @@
         <v>110</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="48">
+      <c r="G9" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="46">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="I9" s="49" t="str">
+      <c r="I9" s="47" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J9" s="42"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="5" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1326,21 +1327,21 @@
         <v>111</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="48">
+      <c r="G10" s="36"/>
+      <c r="H10" s="46">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="I10" s="49" t="str">
+      <c r="I10" s="47" t="str">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="J10" s="42"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="19" t="s">
         <v>39</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1358,21 +1359,23 @@
         <v>13</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="50">
+      <c r="G11" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="48">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="I11" s="51" t="str">
+      <c r="I11" s="49" t="str">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J11" s="43" t="s">
-        <v>57</v>
+      <c r="J11" s="41" t="s">
+        <v>56</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1390,19 +1393,21 @@
         <v>14</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="50">
+      <c r="G12" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="48">
         <f t="shared" si="0"/>
         <v>1001</v>
       </c>
-      <c r="I12" s="51" t="str">
+      <c r="I12" s="49" t="str">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J12" s="43"/>
+      <c r="J12" s="41"/>
       <c r="K12" s="8"/>
       <c r="L12" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1420,19 +1425,21 @@
         <v>15</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="50">
+      <c r="G13" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="48">
         <f t="shared" si="0"/>
         <v>1010</v>
       </c>
-      <c r="I13" s="51" t="str">
+      <c r="I13" s="49" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="J13" s="43"/>
+      <c r="J13" s="41"/>
       <c r="K13" s="8"/>
       <c r="L13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1450,19 +1457,21 @@
         <v>16</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="50">
+      <c r="G14" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="48">
         <f t="shared" si="0"/>
         <v>1011</v>
       </c>
-      <c r="I14" s="51" t="str">
+      <c r="I14" s="49" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="J14" s="43"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="8"/>
       <c r="L14" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1480,19 +1489,21 @@
         <v>100</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="50">
+      <c r="G15" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="48">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="I15" s="51" t="str">
+      <c r="I15" s="49" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="J15" s="43"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="8"/>
       <c r="L15" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1510,19 +1521,21 @@
         <v>101</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="50">
+      <c r="G16" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="48">
         <f t="shared" si="0"/>
         <v>1101</v>
       </c>
-      <c r="I16" s="51" t="str">
+      <c r="I16" s="49" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="J16" s="43"/>
+      <c r="J16" s="41"/>
       <c r="K16" s="8"/>
       <c r="L16" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1540,24 +1553,26 @@
         <v>110</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="50">
+      <c r="G17" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="48">
         <f t="shared" si="0"/>
         <v>1110</v>
       </c>
-      <c r="I17" s="51" t="str">
+      <c r="I17" s="49" t="str">
         <f t="shared" si="1"/>
         <v>E</v>
       </c>
-      <c r="J17" s="43"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="8"/>
       <c r="L17" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>31</v>
@@ -1572,28 +1587,28 @@
         <v>111</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="52">
+      <c r="G18" s="38"/>
+      <c r="H18" s="50">
         <f t="shared" si="0"/>
         <v>1111</v>
       </c>
-      <c r="I18" s="53" t="str">
+      <c r="I18" s="51" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="J18" s="44" t="s">
+      <c r="J18" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="L18" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="54" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="27">
@@ -1606,21 +1621,23 @@
         <v>13</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="48">
+      <c r="G19" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="46">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="I19" s="49" t="str">
+      <c r="I19" s="47" t="str">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J19" s="42"/>
+      <c r="J19" s="40"/>
       <c r="K19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1638,21 +1655,23 @@
         <v>14</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="48">
+      <c r="G20" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="46">
         <f t="shared" si="0"/>
         <v>10001</v>
       </c>
-      <c r="I20" s="49" t="str">
+      <c r="I20" s="47" t="str">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J20" s="42"/>
+      <c r="J20" s="40"/>
       <c r="K20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1670,21 +1689,23 @@
         <v>15</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="48">
+      <c r="G21" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="46">
         <f t="shared" si="0"/>
         <v>10010</v>
       </c>
-      <c r="I21" s="49" t="str">
+      <c r="I21" s="47" t="str">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J21" s="42"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1702,21 +1723,23 @@
         <v>16</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="48">
+      <c r="G22" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="46">
         <f t="shared" si="0"/>
         <v>10011</v>
       </c>
-      <c r="I22" s="49" t="str">
+      <c r="I22" s="47" t="str">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="J22" s="42"/>
+      <c r="J22" s="40"/>
       <c r="K22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1734,21 +1757,23 @@
         <v>100</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="48">
+      <c r="G23" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="46">
         <f t="shared" si="0"/>
         <v>10100</v>
       </c>
-      <c r="I23" s="49" t="str">
+      <c r="I23" s="47" t="str">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="J23" s="42"/>
+      <c r="J23" s="40"/>
       <c r="K23" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1766,21 +1791,23 @@
         <v>101</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="48">
+      <c r="G24" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="46">
         <f t="shared" si="0"/>
         <v>10101</v>
       </c>
-      <c r="I24" s="49" t="str">
+      <c r="I24" s="47" t="str">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J24" s="42"/>
+      <c r="J24" s="40"/>
       <c r="K24" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1798,21 +1825,23 @@
         <v>110</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="48">
+      <c r="G25" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="46">
         <f t="shared" si="0"/>
         <v>10110</v>
       </c>
-      <c r="I25" s="49" t="str">
+      <c r="I25" s="47" t="str">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="J25" s="42"/>
+      <c r="J25" s="40"/>
       <c r="K25" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1830,21 +1859,23 @@
         <v>111</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="48">
+      <c r="G26" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="46">
         <f t="shared" si="0"/>
         <v>10111</v>
       </c>
-      <c r="I26" s="49" t="str">
+      <c r="I26" s="47" t="str">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="J26" s="42"/>
+      <c r="J26" s="40"/>
       <c r="K26" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1862,19 +1893,21 @@
         <v>13</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="50">
+      <c r="G27" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="48">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="I27" s="51" t="str">
+      <c r="I27" s="49" t="str">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="J27" s="43"/>
+      <c r="J27" s="41"/>
       <c r="K27" s="8"/>
       <c r="L27" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1892,19 +1925,21 @@
         <v>14</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="50">
+      <c r="G28" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="48">
         <f t="shared" si="0"/>
         <v>11001</v>
       </c>
-      <c r="I28" s="51" t="str">
+      <c r="I28" s="49" t="str">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="J28" s="43"/>
+      <c r="J28" s="41"/>
       <c r="K28" s="8"/>
       <c r="L28" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1922,19 +1957,21 @@
         <v>15</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="50">
+      <c r="G29" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="48">
         <f t="shared" si="0"/>
         <v>11010</v>
       </c>
-      <c r="I29" s="51" t="str">
+      <c r="I29" s="49" t="str">
         <f t="shared" si="1"/>
         <v>1A</v>
       </c>
-      <c r="J29" s="43"/>
+      <c r="J29" s="41"/>
       <c r="K29" s="8"/>
       <c r="L29" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1952,19 +1989,21 @@
         <v>16</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="50">
+      <c r="G30" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="48">
         <f t="shared" si="0"/>
         <v>11011</v>
       </c>
-      <c r="I30" s="51" t="str">
+      <c r="I30" s="49" t="str">
         <f t="shared" si="1"/>
         <v>1B</v>
       </c>
-      <c r="J30" s="43"/>
+      <c r="J30" s="41"/>
       <c r="K30" s="8"/>
       <c r="L30" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1982,19 +2021,21 @@
         <v>100</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="50">
+      <c r="G31" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="48">
         <f t="shared" si="0"/>
         <v>11100</v>
       </c>
-      <c r="I31" s="51" t="str">
+      <c r="I31" s="49" t="str">
         <f t="shared" si="1"/>
         <v>1C</v>
       </c>
-      <c r="J31" s="43"/>
+      <c r="J31" s="41"/>
       <c r="K31" s="8"/>
       <c r="L31" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2012,19 +2053,21 @@
         <v>101</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="50">
+      <c r="G32" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="48">
         <f t="shared" si="0"/>
         <v>11101</v>
       </c>
-      <c r="I32" s="51" t="str">
+      <c r="I32" s="49" t="str">
         <f t="shared" si="1"/>
         <v>1D</v>
       </c>
-      <c r="J32" s="43"/>
+      <c r="J32" s="41"/>
       <c r="K32" s="8"/>
       <c r="L32" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2042,27 +2085,29 @@
         <v>110</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="50">
+      <c r="G33" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="48">
         <f t="shared" si="0"/>
         <v>11110</v>
       </c>
-      <c r="I33" s="51" t="str">
+      <c r="I33" s="49" t="str">
         <f t="shared" si="1"/>
         <v>1E</v>
       </c>
-      <c r="J33" s="43"/>
+      <c r="J33" s="41"/>
       <c r="K33" s="8"/>
       <c r="L33" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>31</v>
+        <v>57</v>
+      </c>
+      <c r="B34" s="55" t="s">
+        <v>64</v>
       </c>
       <c r="C34" s="30">
         <v>1</v>
@@ -2074,23 +2119,25 @@
         <v>111</v>
       </c>
       <c r="F34" s="22"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="54">
+      <c r="G34" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="52">
         <f t="shared" si="0"/>
         <v>11111</v>
       </c>
-      <c r="I34" s="55" t="str">
+      <c r="I34" s="53" t="str">
         <f t="shared" si="1"/>
         <v>1F</v>
       </c>
-      <c r="J34" s="45" t="s">
-        <v>62</v>
+      <c r="J34" s="43" t="s">
+        <v>61</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L34" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
